--- a/legislator/property/output/normal/張曉風_2013-03-17_財產申報表_tmpd66d1.xlsx
+++ b/legislator/property/output/normal/張曉風_2013-03-17_財產申報表_tmpd66d1.xlsx
@@ -16,9 +16,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="53">
-  <si>
-    <t>土地.坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺北市士林區溪山段三小段03090000地號</t>
+  </si>
+  <si>
+    <t>臺北市中正區東門段02590000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區行義段二小段01240000地號</t>
+  </si>
+  <si>
+    <t>臺北市北投區行義段二小段01250000地號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段二小段00470000地號</t>
+  </si>
+  <si>
+    <t>1949.14</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>8分之1</t>
+  </si>
+  <si>
+    <t>10000分之41</t>
+  </si>
+  <si>
+    <t>14分之1</t>
+  </si>
+  <si>
+    <t>張曉風</t>
+  </si>
+  <si>
+    <t>63年08月28日</t>
+  </si>
+  <si>
+    <t>69年05月15日</t>
+  </si>
+  <si>
+    <t>70年09月07日</t>
+  </si>
+  <si>
+    <t>88年04月19日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-03-17</t>
+  </si>
+  <si>
+    <t>tmpd66d1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -30,7 +135,7 @@
     <t>所有權人</t>
   </si>
   <si>
-    <t>登記（取.得）時間</t>
+    <t>登記〈取得）時間</t>
   </si>
   <si>
     <t>登記（取得）原因</t>
@@ -39,85 +144,28 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>臺北市士林區溪山段三小段 0309-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市中正區東門段0259-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區行義段二小段 0124-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市北投區行義段二小段 0125-0000 地號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段二小段 0047-0000 地號</t>
-  </si>
-  <si>
-    <t>1,949.14</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>8分之1</t>
-  </si>
-  <si>
-    <t>10000分之 41</t>
-  </si>
-  <si>
-    <t>14分之1</t>
-  </si>
-  <si>
-    <t>張曉風</t>
-  </si>
-  <si>
-    <t>63年08月 28日</t>
-  </si>
-  <si>
-    <t>69年05月 15日</t>
-  </si>
-  <si>
-    <t>70年09月 07日</t>
-  </si>
-  <si>
-    <t>88年04月 19日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>登記〈取得）時間</t>
-  </si>
-  <si>
-    <t>臺北市中正區東門段02262-003 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區唭哩岸段 00138-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區行義段二小段 21161-000 建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段二小段 00850-000 建號</t>
-  </si>
-  <si>
-    <t>57年01月 17曰</t>
-  </si>
-  <si>
-    <t>70年11月 21曰</t>
-  </si>
-  <si>
-    <t>70年11月 24日</t>
-  </si>
-  <si>
-    <t>88年04月 20日</t>
+    <t>臺北市中正區東門段02262003建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區唭哩岸段00138000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區行義段二小段21161000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段二小段00850000建號</t>
+  </si>
+  <si>
+    <t>57年01月17曰</t>
+  </si>
+  <si>
+    <t>70年11月21曰</t>
+  </si>
+  <si>
+    <t>70年11月24日</t>
+  </si>
+  <si>
+    <t>88年04月20日</t>
   </si>
   <si>
     <t>貝買</t>
@@ -141,7 +189,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司中 原大學郵局（中壢12支局）</t>
+    <t>中華郵政股份有限公司中原大學郵局（中壢12支局）</t>
   </si>
   <si>
     <t>臺灣銀行營業部</t>
@@ -150,7 +198,7 @@
     <t>臺灣銀行群賢分行</t>
   </si>
   <si>
-    <t>中華郵政股份有限公司台 北東門郵局(台北1支局）</t>
+    <t>中華郵政股份有限公司台北東門郵局(台北1支局）</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -168,13 +216,13 @@
     <t>林治平</t>
   </si>
   <si>
-    <t>3,287,844</t>
-  </si>
-  <si>
-    <t>9,100,000</t>
-  </si>
-  <si>
-    <t>1,371,654</t>
+    <t>3287844</t>
+  </si>
+  <si>
+    <t>9100000</t>
+  </si>
+  <si>
+    <t>1371654</t>
   </si>
 </sst>
 </file>
@@ -533,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,135 +609,261 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>398.16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>600</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>62.6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="2">
         <v>17</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>315</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="2">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -707,25 +881,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -733,25 +907,25 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2">
         <v>128.93</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -759,25 +933,25 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2">
         <v>2037</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -785,25 +959,25 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <v>48.11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -811,25 +985,25 @@
         <v>26</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2">
         <v>118.93</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -847,22 +1021,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -870,16 +1044,16 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -891,16 +1065,16 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -912,16 +1086,16 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -933,20 +1107,20 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -954,20 +1128,20 @@
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -975,20 +1149,20 @@
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -996,16 +1170,16 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2">
         <v>54.58</v>

--- a/legislator/property/output/normal/張曉風_2013-03-17_財產申報表_tmpd66d1.xlsx
+++ b/legislator/property/output/normal/張曉風_2013-03-17_財產申報表_tmpd66d1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="55">
   <si>
     <t>name</t>
   </si>
@@ -60,7 +60,10 @@
     <t>index</t>
   </si>
   <si>
-    <t>臺北市士林區溪山段三小段03090000地號</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
   <si>
     <t>臺北市中正區東門段02590000地號</t>
@@ -75,76 +78,52 @@
     <t>臺北市大安區金華段二小段00470000地號</t>
   </si>
   <si>
-    <t>1949.14</t>
+    <t>8分之1</t>
+  </si>
+  <si>
+    <t>10000分之41</t>
+  </si>
+  <si>
+    <t>14分之1</t>
+  </si>
+  <si>
+    <t>張曉風</t>
+  </si>
+  <si>
+    <t>69年05月15日</t>
+  </si>
+  <si>
+    <t>70年09月07日</t>
+  </si>
+  <si>
+    <t>88年04月19日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2013-03-17</t>
+  </si>
+  <si>
+    <t>tmpd66d1</t>
+  </si>
+  <si>
+    <t>臺北市中正區東門段02262003建號</t>
   </si>
   <si>
     <t>全部</t>
   </si>
   <si>
-    <t>8分之1</t>
-  </si>
-  <si>
-    <t>10000分之41</t>
-  </si>
-  <si>
-    <t>14分之1</t>
-  </si>
-  <si>
-    <t>張曉風</t>
-  </si>
-  <si>
-    <t>63年08月28日</t>
-  </si>
-  <si>
-    <t>69年05月15日</t>
-  </si>
-  <si>
-    <t>70年09月07日</t>
-  </si>
-  <si>
-    <t>88年04月19日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2013-03-17</t>
-  </si>
-  <si>
-    <t>tmpd66d1</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記〈取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺北市中正區東門段02262003建號</t>
+    <t>57年01月17曰</t>
   </si>
   <si>
     <t>臺北市北投區唭哩岸段00138000建號</t>
@@ -156,9 +135,6 @@
     <t>臺北市大安區金華段二小段00850000建號</t>
   </si>
   <si>
-    <t>57年01月17曰</t>
-  </si>
-  <si>
     <t>70年11月21曰</t>
   </si>
   <si>
@@ -171,27 +147,18 @@
     <t>貝買</t>
   </si>
   <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
     <t>中華郵政股份有限公司中原大學郵局（中壢12支局）</t>
   </si>
   <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>林治平</t>
+  </si>
+  <si>
     <t>臺灣銀行營業部</t>
   </si>
   <si>
@@ -201,19 +168,10 @@
     <t>中華郵政股份有限公司台北東門郵局(台北1支局）</t>
   </si>
   <si>
-    <t>活期存款</t>
-  </si>
-  <si>
     <t>定期存款</t>
   </si>
   <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
     <t>美金</t>
-  </si>
-  <si>
-    <t>林治平</t>
   </si>
   <si>
     <t>3287844</t>
@@ -581,13 +539,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,240 +588,223 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>398.16</v>
+        <v>600</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" s="2">
         <v>1748</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.125</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>600</v>
+        <v>1949.14</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M3" s="2">
         <v>1748</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>16</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0041</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>7.991474</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>62.6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>1748</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O4" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.0041</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.25666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>62.6</v>
+        <v>315</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2">
         <v>1748</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O5" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2">
-        <v>315</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="2">
-        <v>1748</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="2">
-        <v>18</v>
+      <c r="P5" s="2">
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>
@@ -873,7 +814,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -881,129 +822,103 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1">
+        <v>128.93</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2037</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="2">
-        <v>128.93</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
-        <v>2037</v>
+        <v>48.11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
-        <v>48.11</v>
+        <v>118.93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="2">
-        <v>118.93</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1013,7 +928,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1021,170 +936,147 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1">
+        <v>327525</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>327525</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>44273</v>
+        <v>359807</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>359807</v>
+      <c r="G4" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <v>58</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="2">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
         <v>54.58</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G7" s="2">
         <v>1619</v>
       </c>
     </row>

--- a/legislator/property/output/normal/張曉風_2013-03-17_財產申報表_tmpd66d1.xlsx
+++ b/legislator/property/output/normal/張曉風_2013-03-17_財產申報表_tmpd66d1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
   <si>
     <t>name</t>
   </si>
@@ -66,6 +66,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺北市士林區溪山段三小段03090000地號</t>
+  </si>
+  <si>
     <t>臺北市中正區東門段02590000地號</t>
   </si>
   <si>
@@ -78,6 +81,9 @@
     <t>臺北市大安區金華段二小段00470000地號</t>
   </si>
   <si>
+    <t>全部</t>
+  </si>
+  <si>
     <t>8分之1</t>
   </si>
   <si>
@@ -90,6 +96,9 @@
     <t>張曉風</t>
   </si>
   <si>
+    <t>63年08月28日</t>
+  </si>
+  <si>
     <t>69年05月15日</t>
   </si>
   <si>
@@ -120,19 +129,16 @@
     <t>臺北市中正區東門段02262003建號</t>
   </si>
   <si>
-    <t>全部</t>
+    <t>臺北市北投區唭哩岸段00138000建號</t>
+  </si>
+  <si>
+    <t>臺北市北投區行義段二小段21161000建號</t>
+  </si>
+  <si>
+    <t>臺北市大安區金華段二小段00850000建號</t>
   </si>
   <si>
     <t>57年01月17曰</t>
-  </si>
-  <si>
-    <t>臺北市北投區唭哩岸段00138000建號</t>
-  </si>
-  <si>
-    <t>臺北市北投區行義段二小段21161000建號</t>
-  </si>
-  <si>
-    <t>臺北市大安區金華段二小段00850000建號</t>
   </si>
   <si>
     <t>70年11月21曰</t>
@@ -539,7 +545,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -597,213 +603,266 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>600</v>
+        <v>398.16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M2" s="2">
         <v>1748</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
-        <v>75</v>
+        <v>398.16</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>1949.14</v>
+        <v>600</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M3" s="2">
         <v>1748</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P3" s="2">
-        <v>0.0041</v>
+        <v>0.125</v>
       </c>
       <c r="Q3" s="2">
-        <v>7.991474</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="2">
-        <v>62.6</v>
+        <v>1949.14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2">
         <v>1748</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O4" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" s="2">
         <v>0.0041</v>
       </c>
       <c r="Q4" s="2">
-        <v>0.25666</v>
+        <v>7.991474</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="2">
-        <v>315</v>
+        <v>62.6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M5" s="2">
         <v>1748</v>
       </c>
       <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0041</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0.25666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2">
+        <v>315</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O5" s="2">
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="2">
         <v>18</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P6" s="2">
         <v>0.0714285714285714</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q6" s="2">
         <v>22.5</v>
       </c>
     </row>
@@ -814,111 +873,272 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="1">
-        <v>128.93</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
         <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C2" s="2">
-        <v>2037</v>
+        <v>128.93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="2">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>128.93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="2">
-        <v>48.11</v>
+        <v>2037</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="2">
+        <v>24</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0041</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>8.3517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C4" s="2">
+        <v>48.11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="2">
+        <v>25</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>48.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="1">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="2">
         <v>118.93</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1748</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="2">
+        <v>26</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0.0714285714285714</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>8.495</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +1148,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -936,16 +1156,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -954,129 +1174,150 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>44273</v>
+        <v>327525</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>359807</v>
+        <v>44273</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>52</v>
+      <c r="G4" s="2">
+        <v>359807</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>58</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2">
         <v>54.58</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G8" s="2">
         <v>1619</v>
       </c>
     </row>

--- a/legislator/property/output/normal/張曉風_2013-03-17_財產申報表_tmpd66d1.xlsx
+++ b/legislator/property/output/normal/張曉風_2013-03-17_財產申報表_tmpd66d1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>貝買</t>
+  </si>
+  <si>
+    <t>building</t>
   </si>
   <si>
     <t>中華郵政股份有限公司中原大學郵局（中壢12支局）</t>
@@ -955,7 +958,7 @@
         <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>33</v>
@@ -1008,7 +1011,7 @@
         <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>33</v>
@@ -1061,7 +1064,7 @@
         <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>33</v>
@@ -1114,7 +1117,7 @@
         <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>33</v>
@@ -1156,16 +1159,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -1177,16 +1180,16 @@
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -1198,16 +1201,16 @@
         <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1219,13 +1222,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
@@ -1240,20 +1243,20 @@
         <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1261,20 +1264,20 @@
         <v>56</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1282,20 +1285,20 @@
         <v>57</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1303,13 +1306,13 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>

--- a/legislator/property/output/normal/張曉風_2013-03-17_財產申報表_tmpd66d1.xlsx
+++ b/legislator/property/output/normal/張曉風_2013-03-17_財產申報表_tmpd66d1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="59">
   <si>
     <t>name</t>
   </si>
@@ -156,40 +156,43 @@
     <t>building</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中華郵政股份有限公司中原大學郵局（中壢12支局）</t>
   </si>
   <si>
+    <t>臺灣銀行營業部</t>
+  </si>
+  <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司台北東門郵局(台北1支局）</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
+    <t>美金</t>
+  </si>
+  <si>
     <t>林治平</t>
   </si>
   <si>
-    <t>臺灣銀行營業部</t>
-  </si>
-  <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司台北東門郵局(台北1支局）</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>美金</t>
-  </si>
-  <si>
-    <t>3287844</t>
-  </si>
-  <si>
-    <t>9100000</t>
-  </si>
-  <si>
-    <t>1371654</t>
+    <t>deposit</t>
   </si>
 </sst>
 </file>
@@ -1151,13 +1154,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
@@ -1168,35 +1171,75 @@
         <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>327525</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2">
         <v>327525</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1748</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>53</v>
       </c>
@@ -1204,20 +1247,40 @@
         <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+        <v>57</v>
+      </c>
+      <c r="F3" s="2">
         <v>44273</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1748</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>54</v>
       </c>
@@ -1225,20 +1288,40 @@
         <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>359807</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1748</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>55</v>
       </c>
@@ -1246,20 +1329,40 @@
         <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>3287844</v>
+      </c>
       <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1748</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" s="2">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>56</v>
       </c>
@@ -1267,20 +1370,40 @@
         <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>9100000</v>
+      </c>
       <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1748</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="2">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>57</v>
       </c>
@@ -1288,20 +1411,40 @@
         <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>1371654</v>
+      </c>
       <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1748</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>58</v>
       </c>
@@ -1309,19 +1452,37 @@
         <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="2">
-        <v>54.58</v>
-      </c>
-      <c r="G8" s="2">
         <v>1619</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1748</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="2">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
